--- a/content/smart-health/docs/diccionario_datos.xlsx
+++ b/content/smart-health/docs/diccionario_datos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\black\Documents\Git Hub\Warzerp\sql-101-mastering\content\smart-health\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhoan\OneDrive\Documentos\Github\XaiclonXD\sql-101-mastering\content\smart-health\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B9C7C1-59E9-4C72-9E31-5E78832DE448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DICCIONARIO DE DATOS" sheetId="12" r:id="rId1"/>
@@ -29,17 +30,6 @@
     <sheet name="MUNICIPALITIES" sheetId="17" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -190,18 +180,9 @@
     <t>Ciudad donde se encuentra el comercio</t>
   </si>
   <si>
-    <t>Jhon Jairo Mantilla Castellanos</t>
-  </si>
-  <si>
     <t>Smart Health - Sistema Hospitalario 🏥💊</t>
   </si>
   <si>
-    <t>Descripción: Este catálogo de datos detalla la estructura de la base de datos relacional diseñada para gestionar un sistema hospitalario académico. Incluye entidades para pacientes, profesionales, citas, historiales clínicos, prescripciones y catálogos auxiliares (ubicaciones, tipos de documento, especialidades, diagnósticos y medicamentos). El diseño sigue principios de normalización hasta la Cuarta Forma Normal (4FN) para garantizar integridad, trazabilidad y eficiencia en el manejo de datos clínicos.</t>
-  </si>
-  <si>
-    <t>Facilitar el almacenamiento, organización y análisis eficiente de la información médica, permitiendo el seguimiento de pacientes, control de medicamentos, programación de citas, gestión de profesionales y análisis clínico/operativo.</t>
-  </si>
-  <si>
     <t>PATIENTS</t>
   </si>
   <si>
@@ -758,12 +739,21 @@
   </si>
   <si>
     <t>DEPARTMENTS</t>
+  </si>
+  <si>
+    <t>Jhoan Smith Araque Jaimes</t>
+  </si>
+  <si>
+    <t>Descripción: El presente catálogo de datos detalla la estructura de la base de datos relacional diseñada para gestionar un sistema hospitalario académico. El cual incluye entidades para pacientes, profesionales, citas, historiales clínicos, prescripciones y catálogos auxiliares (ubicaciones, tipos de documento, especialidades, diagnósticos y medicamentos). El diseño sigue principios de normalización hasta la Cuarta Forma Normal (4FN) para garantizar integridad, trazabilidad y eficiencia en el manejo de datos clínicos.</t>
+  </si>
+  <si>
+    <t>Permitir el seguimiento de los pacientes, la gestión de profesionales, la programación de citas y el análisis clínico/operativo, al facilitar el almacenamiento, la organización y el análisis efectivo de datos médicos.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -925,7 +915,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -957,9 +947,6 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -969,7 +956,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -994,32 +980,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1030,26 +1033,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1121,39 +1104,39 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>8211</xdr:colOff>
+      <xdr:colOff>28706</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>144188</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>513693</xdr:rowOff>
+      <xdr:rowOff>541369</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{830229EC-483E-379B-459D-9F938DC4199F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6971314" y="0"/>
-          <a:ext cx="7772400" cy="7772400"/>
+          <a:off x="7237226" y="1"/>
+          <a:ext cx="5183374" cy="7856568"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1166,9 +1149,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1206,9 +1189,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1243,7 +1226,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1278,7 +1261,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1451,461 +1434,490 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-    </row>
-    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="46" t="s">
+    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+    </row>
+    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A2" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-    </row>
-    <row r="3" spans="1:8" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+    </row>
+    <row r="3" spans="1:8" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-    </row>
-    <row r="4" spans="1:8" ht="71.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+    </row>
+    <row r="4" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-    </row>
-    <row r="5" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+    </row>
+    <row r="5" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="51">
-        <v>45960</v>
-      </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-    </row>
-    <row r="6" spans="1:8" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="43">
+        <v>45961</v>
+      </c>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+    </row>
+    <row r="6" spans="1:8" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-    </row>
-    <row r="7" spans="1:8" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+    </row>
+    <row r="7" spans="1:8" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="51">
-        <v>45960</v>
-      </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="43">
+        <v>45961</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-    </row>
-    <row r="9" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A9" s="46" t="s">
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+    </row>
+    <row r="9" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A9" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-    </row>
-    <row r="10" spans="1:8" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+    </row>
+    <row r="10" spans="1:8" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-    </row>
-    <row r="11" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+    </row>
+    <row r="11" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-    </row>
-    <row r="12" spans="1:8" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+    </row>
+    <row r="12" spans="1:8" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-    </row>
-    <row r="13" spans="1:8" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+    </row>
+    <row r="13" spans="1:8" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-    </row>
-    <row r="14" spans="1:8" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+    </row>
+    <row r="14" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-    </row>
-    <row r="15" spans="1:8" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+    </row>
+    <row r="15" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-    </row>
-    <row r="16" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A16" s="46" t="s">
+      <c r="B15" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+    </row>
+    <row r="16" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A16" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-    </row>
-    <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+    </row>
+    <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47" t="s">
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-    </row>
-    <row r="18" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+    </row>
+    <row r="18" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+    </row>
+    <row r="19" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+    </row>
+    <row r="20" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-    </row>
-    <row r="19" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="B20" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+    </row>
+    <row r="21" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B21" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+    </row>
+    <row r="22" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-    </row>
-    <row r="20" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="B22" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+    </row>
+    <row r="23" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="43" t="s">
+      <c r="B23" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-    </row>
-    <row r="21" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+    </row>
+    <row r="24" spans="1:8" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="43" t="s">
+      <c r="B24" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-    </row>
-    <row r="22" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+    </row>
+    <row r="25" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="43" t="s">
+      <c r="B25" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-    </row>
-    <row r="23" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+    </row>
+    <row r="26" spans="1:8" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="43" t="s">
+      <c r="B26" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-    </row>
-    <row r="24" spans="1:8" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+    </row>
+    <row r="27" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-    </row>
-    <row r="25" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="B27" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+    </row>
+    <row r="28" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+    </row>
+    <row r="29" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-    </row>
-    <row r="26" spans="1:8" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="B29" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+    </row>
+    <row r="30" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="43" t="s">
+      <c r="B30" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-    </row>
-    <row r="27" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="44" t="s">
-        <v>237</v>
-      </c>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-    </row>
-    <row r="28" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-    </row>
-    <row r="29" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-    </row>
-    <row r="30" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="B18:E18"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
@@ -1921,50 +1933,21 @@
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B12:H12"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B29:E29"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F18:H18" location="CLIENTS!A1" display="CLIENTS!A1"/>
-    <hyperlink ref="F19:H19" location="DOCTORS!A1" display="DOCTORS!A1"/>
-    <hyperlink ref="F20:H20" location="APPOINTMENTS!A1" display="APPOINTMENTS!A1"/>
-    <hyperlink ref="F21:H21" location="MEDICAL_RECORDS!A1" display="MEDICAL_RECORDS!A1"/>
-    <hyperlink ref="F22:H22" location="PRESCRIPTIONS!A1" display="PRESCRIPTIONS!A1"/>
-    <hyperlink ref="F23:H23" location="MEDICATIONS!A1" display="MEDICATIONS!A1"/>
-    <hyperlink ref="F24:H24" location="SPECIALTIES!A1" display="SPECIALTIES!A1"/>
-    <hyperlink ref="F25:H25" location="DIAGNOSES!A1" display="DIAGNOSES!A1"/>
-    <hyperlink ref="F26:H26" location="DOCUMENT_TYPES!A1" display="DOCUMENT_TYPES!A1"/>
-    <hyperlink ref="F29:H29" location="ADRESSES!A1" display="ADRESSES!A1"/>
-    <hyperlink ref="F30:H30" location="ROOMS!A1" display="ROOMS!A1"/>
-    <hyperlink ref="F28:H28" location="MUNICIPALITIES!A1" display="MUNICIPALITIES!A1"/>
-    <hyperlink ref="F27:H27" location="DEPARTMENTS!A1" display="DEPARTMENTS!A1"/>
+    <hyperlink ref="F18:H18" location="CLIENTS!A1" display="CLIENTS!A1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F19:H19" location="DOCTORS!A1" display="DOCTORS!A1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F20:H20" location="APPOINTMENTS!A1" display="APPOINTMENTS!A1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F21:H21" location="MEDICAL_RECORDS!A1" display="MEDICAL_RECORDS!A1" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F22:H22" location="PRESCRIPTIONS!A1" display="PRESCRIPTIONS!A1" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F23:H23" location="MEDICATIONS!A1" display="MEDICATIONS!A1" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F24:H24" location="SPECIALTIES!A1" display="SPECIALTIES!A1" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F25:H25" location="DIAGNOSES!A1" display="DIAGNOSES!A1" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F26:H26" location="DOCUMENT_TYPES!A1" display="DOCUMENT_TYPES!A1" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F29:H29" location="ADRESSES!A1" display="ADRESSES!A1" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F30:H30" location="ROOMS!A1" display="ROOMS!A1" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F28:H28" location="MUNICIPALITIES!A1" display="MUNICIPALITIES!A1" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F27:H27" location="DEPARTMENTS!A1" display="DEPARTMENTS!A1" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1973,7 +1956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -1983,16 +1966,16 @@
       <selection activeCell="E5" sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2009,24 +1992,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
-        <v>87</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>84</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="28" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
-        <v>189</v>
+      <c r="E2" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>5</v>
@@ -2037,38 +2020,38 @@
       <c r="D3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="21">
+      <c r="E3" s="19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="19">
         <v>10</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="21" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21" t="s">
-        <v>183</v>
+      <c r="E4" s="19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2077,7 +2060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -2087,14 +2070,14 @@
       <selection activeCell="E6" sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="37.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2111,24 +2094,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
-        <v>193</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>190</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="28" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
-        <v>195</v>
+      <c r="E2" s="26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>192</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>5</v>
@@ -2139,55 +2122,55 @@
       <c r="D3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="E3" s="19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="21">
+      <c r="B4" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="19">
         <v>100</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="21" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="21">
+      <c r="E4" s="19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="19">
         <v>100</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="21" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>222</v>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -2196,7 +2179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -2204,13 +2187,13 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2228,23 +2211,23 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
-        <v>198</v>
+      <c r="A2" s="26" t="s">
+        <v>195</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="28" t="s">
-        <v>199</v>
+      <c r="E2" s="26" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
-        <v>200</v>
+      <c r="A3" s="19" t="s">
+        <v>197</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>5</v>
@@ -2255,55 +2238,55 @@
       <c r="D3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="19">
+        <v>255</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="19">
+        <v>20</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+    <row r="6" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>202</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="21">
-        <v>255</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="21">
-        <v>20</v>
-      </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2312,7 +2295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -2322,15 +2305,15 @@
       <selection activeCell="E7" sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="38.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="5" max="5" width="38.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2348,23 +2331,23 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
-        <v>119</v>
+      <c r="A2" s="26" t="s">
+        <v>116</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
-        <v>207</v>
+      <c r="E2" s="26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>204</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>5</v>
@@ -2375,68 +2358,68 @@
       <c r="D3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="19">
+        <v>50</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="B5" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="21">
-        <v>50</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="21" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="B6" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" s="19">
+        <v>100</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>211</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="C6" s="21">
-        <v>100</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="41" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2445,23 +2428,23 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
       <selection activeCell="E3" sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="38.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="38.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2479,11 +2462,11 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
-        <v>229</v>
+      <c r="A2" s="26" t="s">
+        <v>226</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C2" s="8">
         <v>10</v>
@@ -2491,13 +2474,13 @@
       <c r="D2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="28" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="E2" s="26" t="s">
         <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>227</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>5</v>
@@ -2508,44 +2491,9 @@
       <c r="D3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="53"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="52"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="52"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
+      <c r="E3" s="19" t="s">
+        <v>229</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2553,20 +2501,20 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
       <selection activeCell="B2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="5" max="5" width="39.42578125" customWidth="1"/>
+    <col min="5" max="5" width="39.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2584,11 +2532,11 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
-        <v>234</v>
+      <c r="A2" s="26" t="s">
+        <v>231</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C2" s="8">
         <v>10</v>
@@ -2596,13 +2544,13 @@
       <c r="D2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="28" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
-        <v>235</v>
+      <c r="E2" s="26" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>232</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>5</v>
@@ -2613,25 +2561,25 @@
       <c r="D3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="29">
+      <c r="E3" s="19" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="27">
         <v>10</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="29" t="s">
-        <v>236</v>
+      <c r="E4" s="27" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -2640,21 +2588,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScale="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="32.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -2669,9 +2617,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>5</v>
@@ -2683,194 +2631,194 @@
         <v>25</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <v>50</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <v>50</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="17">
         <v>50</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <v>50</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="15">
         <v>10</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="16">
         <v>255</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="18">
+        <v>50</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="23" t="s">
+      <c r="B13" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="20">
-        <v>50</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+      <c r="D13" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="21" t="s">
+      <c r="E13" s="19" t="s">
         <v>92</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2879,7 +2827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -2889,16 +2837,16 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2915,9 +2863,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>5</v>
@@ -2932,9 +2880,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>5</v>
@@ -2946,12 +2894,12 @@
         <v>26</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>5</v>
@@ -2963,11 +2911,11 @@
         <v>26</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -2979,30 +2927,30 @@
       <c r="D5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="E5" s="19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="19">
         <v>100</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
-        <v>110</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>107</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>5</v>
@@ -3013,53 +2961,53 @@
       <c r="D7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="E7" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="19">
+        <v>20</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="21">
-        <v>20</v>
-      </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="21" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>113</v>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3068,7 +3016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -3078,16 +3026,16 @@
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3104,9 +3052,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
-        <v>118</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>115</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>5</v>
@@ -3117,62 +3065,62 @@
       <c r="D2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="28" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="26">
+      <c r="E2" s="26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="24">
         <v>50</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="29" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="26">
+      <c r="E3" s="27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="24">
         <v>50</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="29" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>119</v>
+      <c r="E4" s="27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>116</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>120</v>
+      <c r="E5" s="19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>117</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>6</v>
@@ -3181,43 +3129,43 @@
       <c r="D6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="21" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>121</v>
+      <c r="E6" s="19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>118</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>122</v>
+      <c r="E7" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>119</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
-        <v>123</v>
+      <c r="E8" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
+        <v>120</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>5</v>
@@ -3228,12 +3176,12 @@
       <c r="D9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="21" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
+      <c r="E9" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3245,49 +3193,49 @@
       <c r="D10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="21" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
-        <v>124</v>
+      <c r="E10" s="19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>121</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="21" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
-        <v>125</v>
+      <c r="E11" s="19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>122</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="C12" s="28"/>
+      <c r="D12" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>141</v>
+      <c r="E13" s="19" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3297,7 +3245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -3305,16 +3253,16 @@
   <sheetViews>
     <sheetView zoomScale="140" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3331,28 +3279,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="28" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="28" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="21" t="s">
+      <c r="E2" s="26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="12">
@@ -3361,102 +3309,102 @@
       <c r="D3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="22" t="s">
+      <c r="E3" s="19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="29">
+        <v>50</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="29" t="s">
+      <c r="B8" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19" t="s">
         <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="31">
-        <v>50</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21" t="s">
-        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3465,7 +3413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -3475,16 +3423,16 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="36.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="36.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3501,9 +3449,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
-        <v>155</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>152</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>5</v>
@@ -3514,47 +3462,47 @@
       <c r="D2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="28" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="26">
+      <c r="E2" s="26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="24">
         <v>50</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="29" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27" t="s">
+      <c r="E3" s="27" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="29" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B5" s="21" t="s">
+      <c r="E4" s="27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="12">
@@ -3563,15 +3511,15 @@
       <c r="D5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="B6" s="21" t="s">
+      <c r="E5" s="19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="12">
@@ -3580,15 +3528,15 @@
       <c r="D6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="21" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="B7" s="21" t="s">
+      <c r="E6" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="12">
@@ -3598,50 +3546,50 @@
         <v>26</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>160</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>157</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="B9" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="21"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="B10" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="21"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="21" t="s">
-        <v>169</v>
+      <c r="E10" s="19" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3651,7 +3599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -3661,16 +3609,16 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3687,9 +3635,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
-        <v>156</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>153</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>4</v>
@@ -3700,30 +3648,30 @@
       <c r="D2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="28" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>91</v>
+      <c r="E2" s="26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>88</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="B4" s="21" t="s">
+      <c r="E3" s="19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="12">
@@ -3732,15 +3680,15 @@
       <c r="D4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="21" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="B5" s="21" t="s">
+      <c r="E4" s="19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="12">
@@ -3753,36 +3701,36 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="37">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="35">
         <v>100</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="21" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="35"/>
-    </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="35"/>
+      <c r="E6" s="19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3791,7 +3739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -3801,16 +3749,16 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3827,12 +3775,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>91</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>7</v>
@@ -3840,13 +3788,13 @@
       <c r="D2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="28" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
-        <v>180</v>
+      <c r="E2" s="26" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>177</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>5</v>
@@ -3857,21 +3805,21 @@
       <c r="D3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21" t="s">
-        <v>183</v>
+      <c r="E3" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3880,7 +3828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -3890,16 +3838,16 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3916,26 +3864,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
-        <v>184</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>181</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="B3" s="31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="29" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="7">
@@ -3944,13 +3892,13 @@
       <c r="D3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>182</v>
+      <c r="E3" s="19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>179</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>5</v>
@@ -3962,15 +3910,15 @@
         <v>26</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="39"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
